--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>183.9838237302893</v>
+        <v>187.0867421867131</v>
       </c>
       <c r="R2">
-        <v>1655.854413572604</v>
+        <v>1683.780679680418</v>
       </c>
       <c r="S2">
-        <v>0.002650934606104677</v>
+        <v>0.002476505008608346</v>
       </c>
       <c r="T2">
-        <v>0.002650934606104678</v>
+        <v>0.002476505008608346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>92.52550053738133</v>
+        <v>87.17920859167909</v>
       </c>
       <c r="R3">
-        <v>832.7295048364321</v>
+        <v>784.6128773251119</v>
       </c>
       <c r="S3">
-        <v>0.001333155526114445</v>
+        <v>0.001154008799342588</v>
       </c>
       <c r="T3">
-        <v>0.001333155526114445</v>
+        <v>0.001154008799342588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>29.94506938257333</v>
+        <v>24.42531779601222</v>
       </c>
       <c r="R4">
-        <v>269.50562444316</v>
+        <v>219.82786016411</v>
       </c>
       <c r="S4">
-        <v>0.0004314641314599471</v>
+        <v>0.0003233228669849103</v>
       </c>
       <c r="T4">
-        <v>0.0004314641314599471</v>
+        <v>0.0003233228669849103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>88.59667084761732</v>
+        <v>87.96744018239711</v>
       </c>
       <c r="R5">
-        <v>797.3700376285559</v>
+        <v>791.706961641574</v>
       </c>
       <c r="S5">
-        <v>0.001276546904905686</v>
+        <v>0.001164442780177041</v>
       </c>
       <c r="T5">
-        <v>0.001276546904905686</v>
+        <v>0.001164442780177041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>30639.16965270573</v>
+        <v>33066.54993862413</v>
       </c>
       <c r="R6">
-        <v>275752.5268743516</v>
+        <v>297598.9494476172</v>
       </c>
       <c r="S6">
-        <v>0.4414650890924939</v>
+        <v>0.4377086028825855</v>
       </c>
       <c r="T6">
-        <v>0.4414650890924939</v>
+        <v>0.4377086028825856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>15408.44434411889</v>
+        <v>15408.44434411888</v>
       </c>
       <c r="R7">
-        <v>138675.99909707</v>
+        <v>138675.9990970699</v>
       </c>
       <c r="S7">
-        <v>0.2220128786862365</v>
+        <v>0.203964691175126</v>
       </c>
       <c r="T7">
-        <v>0.2220128786862365</v>
+        <v>0.203964691175126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>4986.808309950683</v>
+        <v>4317.040220105789</v>
       </c>
       <c r="R8">
-        <v>44881.27478955615</v>
+        <v>38853.36198095209</v>
       </c>
       <c r="S8">
-        <v>0.07185252733000072</v>
+        <v>0.05714553368397341</v>
       </c>
       <c r="T8">
-        <v>0.07185252733000071</v>
+        <v>0.05714553368397341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>14754.16900099018</v>
+        <v>15547.75993085173</v>
       </c>
       <c r="R9">
-        <v>132787.5210089116</v>
+        <v>139929.8393776655</v>
       </c>
       <c r="S9">
-        <v>0.2125857393113994</v>
+        <v>0.2058088397464704</v>
       </c>
       <c r="T9">
-        <v>0.2125857393113993</v>
+        <v>0.2058088397464704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>60.59691544505355</v>
+        <v>75.04750459246443</v>
       </c>
       <c r="R10">
-        <v>545.3722390054819</v>
+        <v>675.42754133218</v>
       </c>
       <c r="S10">
-        <v>0.0008731118688563571</v>
+        <v>0.0009934189822029809</v>
       </c>
       <c r="T10">
-        <v>0.0008731118688563571</v>
+        <v>0.0009934189822029813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>30.47420049707289</v>
+        <v>34.97084817812444</v>
       </c>
       <c r="R11">
-        <v>274.267804473656</v>
+        <v>314.7376336031199</v>
       </c>
       <c r="S11">
-        <v>0.0004390881277121931</v>
+        <v>0.0004629161834566273</v>
       </c>
       <c r="T11">
-        <v>0.0004390881277121931</v>
+        <v>0.0004629161834566275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>9.862708582642222</v>
+        <v>9.79791046678889</v>
       </c>
       <c r="R12">
-        <v>88.76437724377999</v>
+        <v>88.1811942011</v>
       </c>
       <c r="S12">
-        <v>0.0001421070339856599</v>
+        <v>0.0001296969205903575</v>
       </c>
       <c r="T12">
-        <v>0.0001421070339856599</v>
+        <v>0.0001296969205903575</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>29.18020108081089</v>
+        <v>35.28703741330445</v>
       </c>
       <c r="R13">
-        <v>262.6218097272979</v>
+        <v>317.58333671974</v>
       </c>
       <c r="S13">
-        <v>0.0004204435112274479</v>
+        <v>0.0004671016442511173</v>
       </c>
       <c r="T13">
-        <v>0.0004204435112274479</v>
+        <v>0.0004671016442511174</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H14">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>1438.904859876116</v>
+        <v>3223.978448096223</v>
       </c>
       <c r="R14">
-        <v>12950.14373888504</v>
+        <v>29015.806032866</v>
       </c>
       <c r="S14">
-        <v>0.02073248946890881</v>
+        <v>0.04267645414653384</v>
       </c>
       <c r="T14">
-        <v>0.02073248946890881</v>
+        <v>0.04267645414653384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H15">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>723.6255323233077</v>
+        <v>1502.318584077732</v>
       </c>
       <c r="R15">
-        <v>6512.629790909768</v>
+        <v>13520.86725669959</v>
       </c>
       <c r="S15">
-        <v>0.01042637296368445</v>
+        <v>0.01988649465220167</v>
       </c>
       <c r="T15">
-        <v>0.01042637296368445</v>
+        <v>0.01988649465220167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H16">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>234.1950775361489</v>
+        <v>420.910093584585</v>
       </c>
       <c r="R16">
-        <v>2107.75569782534</v>
+        <v>3788.190842261265</v>
       </c>
       <c r="S16">
-        <v>0.003374404461394705</v>
+        <v>0.005571671956828071</v>
       </c>
       <c r="T16">
-        <v>0.003374404461394705</v>
+        <v>0.005571671956828071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H17">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>692.8988520119216</v>
+        <v>1515.901810932189</v>
       </c>
       <c r="R17">
-        <v>6236.089668107294</v>
+        <v>13643.1162983897</v>
       </c>
       <c r="S17">
-        <v>0.009983646975515102</v>
+        <v>0.02006629857066723</v>
       </c>
       <c r="T17">
-        <v>0.009983646975515102</v>
+        <v>0.02006629857066723</v>
       </c>
     </row>
   </sheetData>
